--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_212.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_212.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,694 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(17.36, 20.12)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(7.02, 15.1)]</t>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08188405797101449</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F#', 'B', 'B/7']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3555555555555555</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'F']]</t>
+          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(4.940612, 6.577619)]</t>
+          <t>[['F/2', 'C', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(55.935192, 62.15814)]</t>
+          <t>[('0:02:12.380000', '0:02:14.600000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>[('0:00:57.758000', '0:01:05.204000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(79.12, 99.32)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(83.42, 105.16)]</t>
+          <t>[('0:01:06.980000', '0:01:23.840000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(17.38, 61.66)]</t>
+          <t>[['Bb', 'F', 'Bb'], ['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(10.88, 45.64)]</t>
+          <t>[('0:02:22.380000', '0:02:25.800000'), ('0:02:18.800000', '0:02:24.460000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:22.564557', '0:00:26.651269'), ('0:00:23.586235', '0:00:28.578526')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[(1.92, 8.32)]</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>[('0:00:00.360000', '0:00:05')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(96.74, 108.82)]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(93.3, 103.06)]</t>
+          <t>[('0:00:02.580000', '0:00:05.020000'), ('0:00:00.220000', '0:00:03.440000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:24', '0:01:30.840000'), ('0:00:28.800000', '0:00:36.860000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4038461538461539</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['B', 'E', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[('0:00:19.602494', '0:00:27.450839')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:54.180000', '0:01:05.360000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['D:7', 'G:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(35.14, 39.9)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(32.98, 35.26)]</t>
+          <t>[('0:00:11.620000', '0:00:15.600000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:32.320000', '0:00:33.880000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_223</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1282051282051282</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:7', 'D', 'D:min', 'A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(25.48, 32.58), (74.1, 80.04)]</t>
+          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(88.48, 100.38), (40.38, 42.28)]</t>
+          <t>[('0:00:12.823786', '0:00:18.895804')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:03.520000', '0:00:13.740000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(18.24, 29.1)]</t>
+          <t>[('0:00:07.160000', '0:00:19.200000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:09.280000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.44, 130.84)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.44, 126.44)]</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:04.860000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_7</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:00:09.180000', '0:01:01')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:11.940000', '0:01:07.800000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_135</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['A#:min', 'F:7/A#', 'F:(3,5,b7,b9)/A#', 'A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(74.1, 80.04)]</t>
+          <t>[('0:00:13.600000', '0:00:44.080000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:15.360000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(2.58, 7.08)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.56, 25.14)]</t>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.78, 96.78)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.78, 98.82)]</t>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(9.18, 14.22)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(107.4, 126.86)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
